--- a/茅台/财务指标_茅台.xlsx
+++ b/茅台/财务指标_茅台.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="折旧对比" sheetId="13" r:id="rId1"/>
@@ -13668,7 +13668,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>新增</t>
+          <t>新增，属于投资收益下科目</t>
         </r>
       </text>
     </comment>
@@ -69703,205 +69703,6 @@
   </si>
   <si>
     <r>
-      <t>1.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>酒类行业的毛利率</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">91.37%
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>其中茅台酒的毛利率</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>93.78%(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>营收</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>853.4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>亿</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>系列酒的毛利率</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>72.2%(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>营收</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>95.4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>亿</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>)
-2.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>国内</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>824.2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>亿，国外</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>29.2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>亿</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>0.77</t>
     </r>
     <r>
@@ -73561,6 +73362,205 @@
     <t>公司正式员工总数为26,568人
 (20.3-19+66.5) / 26,568  人均薪酬25.5万
 2018年05月11日董事长从袁仁国到李保芳</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>酒类行业的毛利率</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">91.37%
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>其中茅台酒的毛利率</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>93.78%(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>营收</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>758.9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>亿</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>系列酒的毛利率</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>72.2%(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>营收</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>95.4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>亿</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)
+2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>国内</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>824.2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>亿，国外</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>29.2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>亿</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -73905,13 +73905,13 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -73923,6 +73923,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -73932,13 +73935,10 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -74242,11 +74242,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E7" sqref="E7"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -74456,7 +74456,7 @@
         <v>455</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="F8" s="5"/>
     </row>
@@ -74470,10 +74470,10 @@
       <c r="C9" t="s">
         <v>922</v>
       </c>
-      <c r="D9" s="85" t="s">
+      <c r="D9" s="83" t="s">
         <v>769</v>
       </c>
-      <c r="E9" s="87" t="s">
+      <c r="E9" s="82" t="s">
         <v>924</v>
       </c>
     </row>
@@ -74483,8 +74483,8 @@
       <c r="C10" s="41" t="s">
         <v>768</v>
       </c>
-      <c r="D10" s="83"/>
-      <c r="E10" s="87"/>
+      <c r="D10" s="84"/>
+      <c r="E10" s="82"/>
     </row>
     <row r="11" spans="1:6" ht="14.25" customHeight="1">
       <c r="A11" s="81">
@@ -74496,10 +74496,10 @@
       <c r="C11" s="1" t="s">
         <v>923</v>
       </c>
-      <c r="D11" s="78" t="s">
+      <c r="D11" s="76" t="s">
         <v>280</v>
       </c>
-      <c r="E11" s="87" t="s">
+      <c r="E11" s="82" t="s">
         <v>1094</v>
       </c>
     </row>
@@ -74510,108 +74510,124 @@
         <v>1092</v>
       </c>
       <c r="D12" s="81"/>
-      <c r="E12" s="87"/>
+      <c r="E12" s="82"/>
     </row>
     <row r="13" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A13" s="84">
+      <c r="A13" s="85">
         <v>2016</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>1247</v>
       </c>
-      <c r="C13" s="85" t="s">
+      <c r="C13" s="83" t="s">
         <v>1093</v>
       </c>
       <c r="D13" s="86" t="s">
         <v>280</v>
       </c>
-      <c r="E13" s="82" t="s">
+      <c r="E13" s="87" t="s">
         <v>1248</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="170.25" customHeight="1">
-      <c r="A14" s="84"/>
+      <c r="A14" s="85"/>
       <c r="B14" s="5"/>
-      <c r="C14" s="85"/>
-      <c r="D14" s="84"/>
-      <c r="E14" s="83"/>
+      <c r="C14" s="83"/>
+      <c r="D14" s="85"/>
+      <c r="E14" s="84"/>
     </row>
     <row r="15" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A15" s="84">
+      <c r="A15" s="85">
         <v>2017</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>1389</v>
       </c>
-      <c r="C15" s="85" t="s">
+      <c r="C15" s="83" t="s">
         <v>1093</v>
       </c>
       <c r="D15" s="86" t="s">
         <v>280</v>
       </c>
-      <c r="E15" s="82" t="s">
+      <c r="E15" s="87" t="s">
         <v>1392</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="171" customHeight="1">
-      <c r="A16" s="84"/>
+      <c r="A16" s="85"/>
       <c r="B16" s="5"/>
-      <c r="C16" s="85"/>
-      <c r="D16" s="84"/>
-      <c r="E16" s="83"/>
+      <c r="C16" s="83"/>
+      <c r="D16" s="85"/>
+      <c r="E16" s="84"/>
     </row>
     <row r="17" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A17" s="84">
+      <c r="A17" s="85">
         <v>2018</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>1565</v>
-      </c>
-      <c r="C17" s="85" t="s">
+        <v>1564</v>
+      </c>
+      <c r="C17" s="83" t="s">
         <v>1093</v>
       </c>
       <c r="D17" s="86" t="s">
         <v>1390</v>
       </c>
-      <c r="E17" s="82" t="s">
+      <c r="E17" s="87" t="s">
         <v>1391</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="180" customHeight="1">
-      <c r="A18" s="84"/>
+      <c r="A18" s="85"/>
       <c r="B18" s="4"/>
-      <c r="C18" s="85"/>
-      <c r="D18" s="84"/>
-      <c r="E18" s="83"/>
+      <c r="C18" s="83"/>
+      <c r="D18" s="85"/>
+      <c r="E18" s="84"/>
     </row>
     <row r="19" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A19" s="84">
+      <c r="A19" s="85">
         <v>2019</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="C19" s="85" t="s">
+      <c r="C19" s="83" t="s">
         <v>1093</v>
       </c>
       <c r="D19" s="86" t="s">
         <v>280</v>
       </c>
       <c r="E19" s="88" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="138.75" customHeight="1">
-      <c r="A20" s="84"/>
+      <c r="A20" s="85"/>
       <c r="B20" s="5" t="s">
         <v>297</v>
       </c>
-      <c r="C20" s="85"/>
-      <c r="D20" s="84"/>
+      <c r="C20" s="83"/>
+      <c r="D20" s="85"/>
       <c r="E20" s="89"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="E13:E14"/>
     <mergeCell ref="D11:D12"/>
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="E11:E12"/>
@@ -74621,22 +74637,6 @@
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="D9:D10"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -74719,7 +74719,7 @@
         <v>2018</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="54.75">
@@ -74727,7 +74727,7 @@
         <v>2019</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
     </row>
   </sheetData>
@@ -74744,7 +74744,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C26" sqref="C26"/>
+      <selection pane="bottomRight" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -74989,11 +74989,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BH11"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AZ3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="L3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F13" sqref="F13"/>
+      <selection pane="bottomRight" activeCell="R4" sqref="R4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -76026,7 +76026,7 @@
         <v>1398</v>
       </c>
       <c r="I11" s="31" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="J11" t="s">
         <v>1399</v>
@@ -76132,10 +76132,10 @@
   <dimension ref="A1:AK11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AA2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AD11" sqref="AD11"/>
+      <selection pane="bottomRight" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -77848,37 +77848,37 @@
         <v>211</v>
       </c>
       <c r="N1" s="1"/>
-      <c r="O1" s="78" t="s">
+      <c r="O1" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="P1" s="78"/>
-      <c r="Q1" s="78"/>
-      <c r="R1" s="78"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="76"/>
+      <c r="R1" s="76"/>
       <c r="S1" s="19" t="s">
         <v>166</v>
       </c>
-      <c r="T1" s="78" t="s">
+      <c r="T1" s="76" t="s">
         <v>167</v>
       </c>
-      <c r="U1" s="78"/>
-      <c r="V1" s="78"/>
-      <c r="W1" s="78"/>
-      <c r="X1" s="78"/>
-      <c r="Y1" s="78" t="s">
+      <c r="U1" s="76"/>
+      <c r="V1" s="76"/>
+      <c r="W1" s="76"/>
+      <c r="X1" s="76"/>
+      <c r="Y1" s="76" t="s">
         <v>175</v>
       </c>
-      <c r="Z1" s="78"/>
-      <c r="AA1" s="78"/>
+      <c r="Z1" s="76"/>
+      <c r="AA1" s="76"/>
       <c r="AB1" s="19" t="s">
         <v>179</v>
       </c>
       <c r="AC1" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" s="76" t="s">
+      <c r="AD1" s="77" t="s">
         <v>182</v>
       </c>
-      <c r="AE1" s="76"/>
+      <c r="AE1" s="77"/>
       <c r="AF1" s="12" t="s">
         <v>183</v>
       </c>
@@ -77888,18 +77888,18 @@
       <c r="AH1" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="AI1" s="76" t="s">
+      <c r="AI1" s="77" t="s">
         <v>188</v>
       </c>
-      <c r="AJ1" s="76"/>
+      <c r="AJ1" s="77"/>
       <c r="AK1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="AL1" s="76" t="s">
+      <c r="AL1" s="77" t="s">
         <v>189</v>
       </c>
-      <c r="AM1" s="76"/>
-      <c r="AN1" s="76"/>
+      <c r="AM1" s="77"/>
+      <c r="AN1" s="77"/>
       <c r="AO1" s="12" t="s">
         <v>94</v>
       </c>
@@ -77909,10 +77909,10 @@
       <c r="AQ1" s="12" t="s">
         <v>196</v>
       </c>
-      <c r="AR1" s="76" t="s">
+      <c r="AR1" s="77" t="s">
         <v>199</v>
       </c>
-      <c r="AS1" s="76"/>
+      <c r="AS1" s="77"/>
       <c r="AT1" s="23" t="s">
         <v>201</v>
       </c>
@@ -77942,56 +77942,56 @@
         <v>211</v>
       </c>
       <c r="BD1" s="24"/>
-      <c r="BE1" s="78" t="s">
+      <c r="BE1" s="76" t="s">
         <v>226</v>
       </c>
-      <c r="BF1" s="78"/>
-      <c r="BG1" s="78"/>
+      <c r="BF1" s="76"/>
+      <c r="BG1" s="76"/>
       <c r="BH1" s="24" t="s">
         <v>213</v>
       </c>
       <c r="BI1" s="24" t="s">
         <v>234</v>
       </c>
-      <c r="BJ1" s="78" t="s">
+      <c r="BJ1" s="76" t="s">
         <v>230</v>
       </c>
-      <c r="BK1" s="78"/>
-      <c r="BL1" s="78"/>
-      <c r="BM1" s="78"/>
-      <c r="BN1" s="78"/>
-      <c r="BO1" s="78"/>
-      <c r="BP1" s="78" t="s">
+      <c r="BK1" s="76"/>
+      <c r="BL1" s="76"/>
+      <c r="BM1" s="76"/>
+      <c r="BN1" s="76"/>
+      <c r="BO1" s="76"/>
+      <c r="BP1" s="76" t="s">
         <v>231</v>
       </c>
-      <c r="BQ1" s="78"/>
+      <c r="BQ1" s="76"/>
       <c r="BR1" s="24" t="s">
         <v>219</v>
       </c>
-      <c r="BS1" s="78" t="s">
+      <c r="BS1" s="76" t="s">
         <v>220</v>
       </c>
-      <c r="BT1" s="78"/>
-      <c r="BU1" s="78"/>
-      <c r="BW1" s="78" t="s">
+      <c r="BT1" s="76"/>
+      <c r="BU1" s="76"/>
+      <c r="BW1" s="76" t="s">
         <v>240</v>
       </c>
-      <c r="BX1" s="78"/>
-      <c r="BY1" s="78"/>
-      <c r="BZ1" s="78"/>
-      <c r="CA1" s="78"/>
-      <c r="CB1" s="78" t="s">
+      <c r="BX1" s="76"/>
+      <c r="BY1" s="76"/>
+      <c r="BZ1" s="76"/>
+      <c r="CA1" s="76"/>
+      <c r="CB1" s="76" t="s">
         <v>244</v>
       </c>
-      <c r="CC1" s="78"/>
-      <c r="CD1" s="78"/>
-      <c r="CE1" s="78"/>
-      <c r="CF1" s="78" t="s">
+      <c r="CC1" s="76"/>
+      <c r="CD1" s="76"/>
+      <c r="CE1" s="76"/>
+      <c r="CF1" s="76" t="s">
         <v>249</v>
       </c>
-      <c r="CG1" s="78"/>
-      <c r="CH1" s="78"/>
-      <c r="CI1" s="78"/>
+      <c r="CG1" s="76"/>
+      <c r="CH1" s="76"/>
+      <c r="CI1" s="76"/>
       <c r="CJ1" s="24" t="s">
         <v>254</v>
       </c>
@@ -78019,7 +78019,7 @@
       </c>
     </row>
     <row r="2" spans="1:96" ht="108.75">
-      <c r="A2" s="77">
+      <c r="A2" s="78">
         <v>2012</v>
       </c>
       <c r="B2" s="16"/>
@@ -78211,7 +78211,7 @@
       <c r="CR2" s="22"/>
     </row>
     <row r="3" spans="1:96" ht="95.25">
-      <c r="A3" s="77"/>
+      <c r="A3" s="78"/>
       <c r="B3" t="s">
         <v>392</v>
       </c>
@@ -80313,7 +80313,7 @@
         <v>267</v>
       </c>
       <c r="CM10" s="5" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
       <c r="CN10" s="5" t="s">
         <v>170</v>
@@ -80333,13 +80333,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="BW1:CA1"/>
-    <mergeCell ref="CB1:CE1"/>
-    <mergeCell ref="CF1:CI1"/>
-    <mergeCell ref="BS1:BU1"/>
-    <mergeCell ref="BE1:BG1"/>
-    <mergeCell ref="BJ1:BO1"/>
-    <mergeCell ref="BP1:BQ1"/>
     <mergeCell ref="AL1:AN1"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="AR1:AS1"/>
@@ -80348,6 +80341,13 @@
     <mergeCell ref="Y1:AA1"/>
     <mergeCell ref="AD1:AE1"/>
     <mergeCell ref="AI1:AJ1"/>
+    <mergeCell ref="BW1:CA1"/>
+    <mergeCell ref="CB1:CE1"/>
+    <mergeCell ref="CF1:CI1"/>
+    <mergeCell ref="BS1:BU1"/>
+    <mergeCell ref="BE1:BG1"/>
+    <mergeCell ref="BJ1:BO1"/>
+    <mergeCell ref="BP1:BQ1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -80485,10 +80485,10 @@
   <dimension ref="A1:AE11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="AA10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AD10" sqref="AD10"/>
+      <selection pane="bottomRight" activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -80569,15 +80569,15 @@
       <c r="X1" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="Y1" s="78" t="s">
+      <c r="Y1" s="76" t="s">
         <v>1076</v>
       </c>
-      <c r="Z1" s="78"/>
-      <c r="AA1" s="78"/>
-      <c r="AB1" s="78"/>
-      <c r="AC1" s="78"/>
-      <c r="AD1" s="78"/>
-      <c r="AE1" s="78"/>
+      <c r="Z1" s="76"/>
+      <c r="AA1" s="76"/>
+      <c r="AB1" s="76"/>
+      <c r="AC1" s="76"/>
+      <c r="AD1" s="76"/>
+      <c r="AE1" s="76"/>
     </row>
     <row r="2" spans="1:31" ht="41.25" customHeight="1">
       <c r="C2" s="1" t="s">
@@ -80613,10 +80613,10 @@
       <c r="O2" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="P2" s="76" t="s">
+      <c r="P2" s="77" t="s">
         <v>141</v>
       </c>
-      <c r="Q2" s="76"/>
+      <c r="Q2" s="77"/>
       <c r="R2" s="1" t="s">
         <v>139</v>
       </c>
@@ -81047,7 +81047,7 @@
         <v>1381</v>
       </c>
       <c r="Y9" s="9" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="Z9" s="9" t="s">
         <v>1382</v>
@@ -81081,10 +81081,10 @@
       <c r="E10" s="9"/>
       <c r="H10" s="5"/>
       <c r="I10" s="9" t="s">
-        <v>1546</v>
+        <v>1570</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="L10" s="9"/>
       <c r="M10" s="41" t="s">
@@ -81094,44 +81094,44 @@
       <c r="P10" s="41"/>
       <c r="Q10" s="41"/>
       <c r="R10" s="9" t="s">
+        <v>1548</v>
+      </c>
+      <c r="S10" s="9" t="s">
         <v>1549</v>
       </c>
-      <c r="S10" s="9" t="s">
+      <c r="T10" s="9" t="s">
         <v>1550</v>
       </c>
-      <c r="T10" s="9" t="s">
+      <c r="U10" s="9" t="s">
         <v>1551</v>
       </c>
-      <c r="U10" s="9" t="s">
+      <c r="V10" s="9" t="s">
         <v>1552</v>
-      </c>
-      <c r="V10" s="9" t="s">
-        <v>1553</v>
       </c>
       <c r="W10" s="9"/>
       <c r="X10" s="9" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="Y10" s="9" t="s">
+        <v>1555</v>
+      </c>
+      <c r="Z10" s="9" t="s">
         <v>1556</v>
       </c>
-      <c r="Z10" s="9" t="s">
+      <c r="AA10" s="41" t="s">
         <v>1557</v>
       </c>
-      <c r="AA10" s="41" t="s">
+      <c r="AB10" s="9" t="s">
         <v>1558</v>
       </c>
-      <c r="AB10" s="9" t="s">
+      <c r="AC10" s="9" t="s">
         <v>1559</v>
       </c>
-      <c r="AC10" s="9" t="s">
+      <c r="AD10" s="9" t="s">
         <v>1560</v>
       </c>
-      <c r="AD10" s="9" t="s">
+      <c r="AE10" s="9" t="s">
         <v>1561</v>
-      </c>
-      <c r="AE10" s="9" t="s">
-        <v>1562</v>
       </c>
     </row>
     <row r="11" spans="1:31">
@@ -81232,7 +81232,7 @@
         <v>2018</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="199.5">
@@ -81240,7 +81240,7 @@
         <v>2019</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
     </row>
   </sheetData>
